--- a/result/sst_cnn_result_1.xlsx
+++ b/result/sst_cnn_result_1.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,228 +461,238 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>model_channels</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>48</v>
+          <t>model_load_weights</t>
+        </is>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>model_kernel_size</t>
+          <t>model_channels</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>model_padding</t>
+          <t>model_kernel_size</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>data_file_path</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>./sst_weekly.mat</t>
-        </is>
+          <t>model_padding</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>training_batch_size</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>50</v>
+          <t>data_file_path</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>./sst_weekly.mat</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>training_learning_rate</t>
+          <t>training_batch_size</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.001</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>training_start_point</t>
+          <t>training_learning_rate</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>training_sensor_num</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[10, 20, 30, 50, 100]</t>
-        </is>
+          <t>training_start_point</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>training_sensor_seed</t>
+          <t>training_sensor_num</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[4, 20, 75, 138, 278]</t>
+          <t>[10]</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>training_sigma</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.05</v>
+          <t>training_sensor_seed</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>[4, 20, 75, 138, 278]</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>training_input_type</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>CNN</t>
-        </is>
+          <t>training_sigma</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>testing_batch_size</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>10</v>
+          <t>training_input_type</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>testing_start_point</t>
+          <t>testing_batch_size</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1098</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>testing_norm</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>L2</t>
-        </is>
+          <t>testing_start_point</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1098</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>testing_sensor_num</t>
+          <t>testing_norm</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[10, 20, 30, 50, 70, 100, 200]</t>
+          <t>L2</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>testing_sensor_seed</t>
+          <t>testing_sensor_num</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[553, 897, 1016, 1255, 1437]</t>
+          <t>[20, 30, 50, 70, 100, 200]</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>testing_sigma</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.05</v>
+          <t>testing_sensor_seed</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>[553, 897, 1016, 1255, 1437]</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>testing_input_type</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>CNN</t>
-        </is>
+          <t>testing_sigma</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>device_prefer_gpu</t>
-        </is>
-      </c>
-      <c r="B21" t="b">
-        <v>1</v>
+          <t>testing_input_type</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>output_model_result</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>sst_cnn_result_1</t>
-        </is>
+          <t>device_prefer_gpu</t>
+        </is>
+      </c>
+      <c r="B22" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>output_model_result</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>sst_cnn_result_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>output_model_save_path</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>model/sst_cnn_test_1.pth</t>
         </is>
@@ -715,32 +725,32 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>trained_results</t>
+          <t>avg_trained</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>trained_max</t>
+          <t>avg_train</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>trained_min</t>
+          <t>avg_test</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>untrained_results</t>
+          <t>avg_untrained</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>untrained_max</t>
+          <t>avg_untrained_train</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>untrained_min</t>
+          <t>avg_untrained_test</t>
         </is>
       </c>
     </row>
@@ -749,22 +759,22 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8099022507667542</v>
+        <v>0.7731458187103272</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8099022507667542</v>
+        <v>0.7738924284239073</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8099022507667542</v>
+        <v>0.7710208526024451</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8397453427314758</v>
+        <v>0.7731458187103272</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8397453427314758</v>
+        <v>0.7738924284239073</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8397453427314758</v>
+        <v>0.7710208526024451</v>
       </c>
     </row>
     <row r="3">
@@ -772,22 +782,22 @@
         <v>20</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7571834325790405</v>
+        <v>0.7731458187103272</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7571834325790405</v>
+        <v>0.7738924284239073</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7571834325790405</v>
+        <v>0.7710208526024451</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5879124402999878</v>
+        <v>0.7731458187103272</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5879124402999878</v>
+        <v>0.7738924284239073</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5879124402999878</v>
+        <v>0.7710208526024451</v>
       </c>
     </row>
     <row r="4">
@@ -795,22 +805,22 @@
         <v>30</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6989979147911072</v>
+        <v>0.7731458187103272</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6989979147911072</v>
+        <v>0.7738924284239073</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6989979147911072</v>
+        <v>0.7710208526024451</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5984209179878235</v>
+        <v>0.7731458187103272</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5984209179878235</v>
+        <v>0.7738924284239073</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5984209179878235</v>
+        <v>0.7710208526024451</v>
       </c>
     </row>
     <row r="5">
@@ -818,22 +828,22 @@
         <v>50</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5173110365867615</v>
+        <v>0.7731458187103272</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5173110365867615</v>
+        <v>0.7738924284239073</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5173110365867615</v>
+        <v>0.7710208526024451</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5058198571205139</v>
+        <v>0.7731458187103272</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5058198571205139</v>
+        <v>0.7738924284239073</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5058198571205139</v>
+        <v>0.7710208526024451</v>
       </c>
     </row>
     <row r="6">
@@ -841,22 +851,22 @@
         <v>70</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4409045875072479</v>
+        <v>0.7731458187103272</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4409045875072479</v>
+        <v>0.7738924284239073</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4409045875072479</v>
+        <v>0.7710208526024451</v>
       </c>
       <c r="E6" t="n">
-        <v>0.469293087720871</v>
+        <v>0.7731458187103272</v>
       </c>
       <c r="F6" t="n">
-        <v>0.469293087720871</v>
+        <v>0.7738924284239073</v>
       </c>
       <c r="G6" t="n">
-        <v>0.469293087720871</v>
+        <v>0.7710208526024451</v>
       </c>
     </row>
     <row r="7">
@@ -864,22 +874,22 @@
         <v>100</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4375550746917725</v>
+        <v>0.7731458187103272</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4375550746917725</v>
+        <v>0.7738924284239073</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4375550746917725</v>
+        <v>0.7710208526024451</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4654549956321716</v>
+        <v>0.7731458187103272</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4654549956321716</v>
+        <v>0.7738924284239073</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4654549956321716</v>
+        <v>0.7710208526024451</v>
       </c>
     </row>
     <row r="8">
@@ -887,22 +897,22 @@
         <v>200</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3867330253124237</v>
+        <v>0.7731458187103272</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3867330253124237</v>
+        <v>0.7738924284239073</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3867330253124237</v>
+        <v>0.7710208526024451</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4264681339263916</v>
+        <v>0.7731458187103272</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4264681339263916</v>
+        <v>0.7738924284239073</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4264681339263916</v>
+        <v>0.7710208526024451</v>
       </c>
     </row>
   </sheetData>
